--- a/simulation_results/inputs/input_template_excel.xlsx
+++ b/simulation_results/inputs/input_template_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="980" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="252">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -683,6 +683,9 @@
   </si>
   <si>
     <t xml:space="preserve">solar_backup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diesel_solar</t>
   </si>
   <si>
     <t xml:space="preserve">perform_simulation</t>
@@ -1228,10 +1231,10 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.4540816326531"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.0459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1441,16 +1444,16 @@
   </sheetPr>
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.10714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1914,11 +1917,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="10" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1023" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1023" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2694,7 +2697,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2735,11 +2738,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2833,19 +2837,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2959,15 +2963,21 @@
       <c r="C15" s="25" t="s">
         <v>218</v>
       </c>
+      <c r="D15" s="25" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B16" s="26" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2981,32 +2991,41 @@
       <c r="C17" s="26" t="s">
         <v>45</v>
       </c>
+      <c r="D17" s="26" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>222</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>221</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>167</v>
       </c>
+      <c r="D19" s="26" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>167</v>
@@ -3014,10 +3033,13 @@
       <c r="C20" s="26" t="s">
         <v>167</v>
       </c>
+      <c r="D20" s="26" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>45</v>
@@ -3025,32 +3047,41 @@
       <c r="C21" s="26" t="s">
         <v>45</v>
       </c>
+      <c r="D21" s="26" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B24" s="26" t="s">
         <v>167</v>
@@ -3058,15 +3089,21 @@
       <c r="C24" s="26" t="s">
         <v>167</v>
       </c>
+      <c r="D24" s="26" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B25" s="26" t="s">
         <v>167</v>
       </c>
       <c r="C25" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="26" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3080,15 +3117,21 @@
       <c r="C26" s="26" t="s">
         <v>43</v>
       </c>
+      <c r="D26" s="26" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
         <v>212</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C27" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3097,10 +3140,13 @@
         <v>214</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>45</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3111,6 +3157,9 @@
         <v>45</v>
       </c>
       <c r="C29" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3139,16 +3188,16 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="9" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3160,7 +3209,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3183,10 +3232,10 @@
     <row r="5" customFormat="false" ht="68.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="28"/>
       <c r="C5" s="29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -3200,7 +3249,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -3211,10 +3260,10 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
       <c r="C7" s="31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -3234,16 +3283,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="32" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
@@ -3338,7 +3387,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="35" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C14" s="36" t="str">
         <f aca="false">IF(D14&gt;=1, "OK", "missing!")</f>
@@ -3404,7 +3453,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="35" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C16" s="36" t="str">
         <f aca="false">IF(D16&gt;=1, "OK", "missing!")</f>
@@ -3437,7 +3486,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="35" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C17" s="36" t="str">
         <f aca="false">IF(D17&gt;=1, "OK", "missing!")</f>
@@ -3866,7 +3915,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C30" s="36" t="str">
         <f aca="false">IF(D30&gt;=1, "OK", "missing!")</f>
@@ -4559,7 +4608,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C51" s="36" t="str">
         <f aca="false">IF(D51&gt;=1, "OK", "missing!")</f>
@@ -5219,7 +5268,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="35" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C71" s="36" t="str">
         <f aca="false">IF(D71&gt;=1, "OK", "missing!")</f>
@@ -6770,7 +6819,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="39" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C118" s="36" t="str">
         <f aca="false">IF(D118&gt;=1, "OK", "missing!")</f>
@@ -6812,7 +6861,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="39" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C120" s="36" t="str">
         <f aca="false">IF(D120&gt;=1, "OK", "missing!")</f>
@@ -6833,7 +6882,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="39" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C121" s="36" t="str">
         <f aca="false">IF(D121&gt;=1, "OK", "missing!")</f>
@@ -6854,7 +6903,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C122" s="36" t="str">
         <f aca="false">IF(D122&gt;=1, "OK", "missing!")</f>
@@ -6875,7 +6924,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="39" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C123" s="36" t="str">
         <f aca="false">IF(D123&gt;=1, "OK", "missing!")</f>
@@ -6896,7 +6945,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="39" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C124" s="36" t="str">
         <f aca="false">IF(D124&gt;=1, "OK", "missing!")</f>
@@ -6917,7 +6966,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="39" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C125" s="36" t="str">
         <f aca="false">IF(D125&gt;=1, "OK", "missing!")</f>
@@ -6938,7 +6987,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="39" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C126" s="36" t="str">
         <f aca="false">IF(D126&gt;=1, "OK", "missing!")</f>

--- a/simulation_results/inputs/input_template_excel.xlsx
+++ b/simulation_results/inputs/input_template_excel.xlsx
@@ -673,7 +673,7 @@
     <t xml:space="preserve">stability_constraint</t>
   </si>
   <si>
-    <t xml:space="preserve"> False or share_usage or share_backup</t>
+    <t xml:space="preserve"> False or share_usage or share_backup or share_hybrid</t>
   </si>
   <si>
     <t xml:space="preserve">renewable_constraint</t>
@@ -1231,10 +1231,9 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.6428571428571"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1451,9 +1450,8 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.10714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="9.85204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1917,11 +1915,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="10" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1023" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.02040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2696,9 +2693,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2738,12 +2732,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.5816326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2840,16 +2832,14 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.02040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3188,10 +3178,8 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1938775510204"/>
     <col collapsed="false" hidden="false" max="9" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/simulation_results/inputs/input_template_excel.xlsx
+++ b/simulation_results/inputs/input_template_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="252">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -604,10 +604,10 @@
     <t xml:space="preserve">title_grid_availability</t>
   </si>
   <si>
-    <t xml:space="preserve">gridavailability_from_file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./inputs/timeseries/intermediate_tier2.csv</t>
+    <t xml:space="preserve">121_Tandubanak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./inputs/timeseries/121_Tandubanak.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Demand</t>
@@ -622,9 +622,6 @@
     <t xml:space="preserve">GridAvailability</t>
   </si>
   <si>
-    <t xml:space="preserve">gridavailability_internal_randomized</t>
-  </si>
-  <si>
     <t xml:space="preserve">Attribute</t>
   </si>
   <si>
@@ -655,6 +652,9 @@
     <t xml:space="preserve">genset_fixed_capacity</t>
   </si>
   <si>
+    <t xml:space="preserve">oem, string (name of base capacity case), None, peak_demand</t>
+  </si>
+  <si>
     <t xml:space="preserve">pcc_consumption_fixed_capacity</t>
   </si>
   <si>
@@ -679,13 +679,13 @@
     <t xml:space="preserve">renewable_constraint</t>
   </si>
   <si>
-    <t xml:space="preserve">shs_backup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solar_backup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diesel_solar</t>
+    <t xml:space="preserve">mg_usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mg_backup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mg_hybrid</t>
   </si>
   <si>
     <t xml:space="preserve">perform_simulation</t>
@@ -715,9 +715,6 @@
     <t xml:space="preserve">capacity_pcc_consumption_kW</t>
   </si>
   <si>
-    <t xml:space="preserve">peak_demand</t>
-  </si>
-  <si>
     <t xml:space="preserve">capacity_pcc_feedin_kW</t>
   </si>
   <si>
@@ -727,10 +724,13 @@
     <t xml:space="preserve">default</t>
   </si>
   <si>
-    <t xml:space="preserve">0.27</t>
-  </si>
-  <si>
     <t xml:space="preserve">share_usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">share_backup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">share_hybrid</t>
   </si>
   <si>
     <t xml:space="preserve">Data Sufficiency Check</t>
@@ -2688,7 +2688,7 @@
   </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -2724,10 +2724,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2788,29 +2788,6 @@
       </c>
       <c r="G3" s="22" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2831,8 +2808,8 @@
   </sheetPr>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2849,50 +2826,50 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>201</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>203</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>205</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>208</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2900,7 +2877,7 @@
         <v>209</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2908,7 +2885,7 @@
         <v>210</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2943,9 +2920,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="58.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>217</v>
@@ -2973,7 +2950,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B17" s="26" t="s">
         <v>45</v>
@@ -3007,10 +2984,10 @@
         <v>222</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3018,10 +2995,10 @@
         <v>224</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>222</v>
@@ -3060,10 +3037,10 @@
         <v>228</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>167</v>
@@ -3071,7 +3048,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B24" s="26" t="s">
         <v>167</v>
@@ -3085,7 +3062,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B25" s="26" t="s">
         <v>167</v>
@@ -3116,13 +3093,13 @@
         <v>212</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3130,10 +3107,10 @@
         <v>214</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>234</v>
@@ -6828,7 +6805,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C119" s="36" t="str">
         <f aca="false">IF(D119&gt;=1, "OK", "missing!")</f>
@@ -6954,7 +6931,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C125" s="36" t="str">
         <f aca="false">IF(D125&gt;=1, "OK", "missing!")</f>
@@ -6975,7 +6952,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C126" s="36" t="str">
         <f aca="false">IF(D126&gt;=1, "OK", "missing!")</f>

--- a/simulation_results/inputs/input_template_excel.xlsx
+++ b/simulation_results/inputs/input_template_excel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="285">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -864,16 +864,13 @@
     <t xml:space="preserve">capacity_pcc_feedin_kW</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5</t>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">default</t>
   </si>
   <si>
     <t xml:space="preserve">0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">share_hybrid</t>
   </si>
   <si>
     <t xml:space="preserve">evaluation_perspective</t>
@@ -1037,7 +1034,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1166,10 +1163,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -1212,12 +1205,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1499,8 +1492,8 @@
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1768,7 +1761,7 @@
         <v>61</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,7 +1919,7 @@
   <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2023,7 +2016,7 @@
         <v>88</v>
       </c>
       <c r="B9" s="18" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>89</v>
@@ -2504,7 +2497,7 @@
         <v>149</v>
       </c>
       <c r="B52" s="18" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>109</v>
@@ -2790,7 +2783,7 @@
         <v>179</v>
       </c>
       <c r="B78" s="18" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>105</v>
@@ -2822,8 +2815,8 @@
       <c r="A81" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="B81" s="0" t="n">
-        <v>20</v>
+      <c r="B81" s="10" t="n">
+        <v>15</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>101</v>
@@ -2833,7 +2826,7 @@
       <c r="A82" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82" s="10" t="n">
         <v>0.8</v>
       </c>
       <c r="C82" s="0" t="s">
@@ -2856,7 +2849,7 @@
         <v>185</v>
       </c>
       <c r="B84" s="18" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>105</v>
@@ -2889,7 +2882,7 @@
         <v>188</v>
       </c>
       <c r="B87" s="10" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C87" s="23" t="s">
         <v>101</v>
@@ -3081,10 +3074,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ20"/>
+  <dimension ref="A1:AMJ19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K20" activeCellId="0" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16510,7 +16503,6 @@
       <c r="I14" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="J14" s="32"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
@@ -16534,7 +16526,7 @@
       <c r="G15" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="32" t="s">
         <v>164</v>
       </c>
       <c r="I15" s="20" t="s">
@@ -16563,7 +16555,7 @@
       <c r="G16" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="32" t="s">
         <v>164</v>
       </c>
       <c r="I16" s="20" t="s">
@@ -16592,7 +16584,7 @@
       <c r="G17" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="32" t="s">
         <v>164</v>
       </c>
       <c r="I17" s="20" t="s">
@@ -16621,7 +16613,7 @@
       <c r="G18" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="32" t="s">
         <v>164</v>
       </c>
       <c r="I18" s="20" t="s">
@@ -16650,15 +16642,12 @@
       <c r="G19" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="32" t="s">
         <v>164</v>
       </c>
       <c r="I19" s="20" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H20" s="33"/>
     </row>
   </sheetData>
   <sheetProtection sheet="true" objects="true" scenarios="true"/>
@@ -16691,8 +16680,8 @@
   </sheetPr>
   <dimension ref="A1:AMF36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K23" activeCellId="0" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17728,7 +17717,7 @@
       <c r="AMF1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34"/>
+      <c r="A2" s="33"/>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
       <c r="D2" s="0"/>
@@ -18758,7 +18747,7 @@
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
-      <c r="E3" s="35"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
@@ -19776,14 +19765,14 @@
       <c r="AMF3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
@@ -20802,14 +20791,14 @@
       <c r="AMF4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
       <c r="G5" s="0"/>
@@ -21828,14 +21817,14 @@
       <c r="AMF5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
@@ -22854,14 +22843,14 @@
       <c r="AMF6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="0"/>
       <c r="F7" s="0"/>
       <c r="G7" s="0"/>
@@ -23880,14 +23869,14 @@
       <c r="AMF7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
@@ -24906,14 +24895,14 @@
       <c r="AMF8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
@@ -25932,14 +25921,14 @@
       <c r="AMF9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
@@ -26958,14 +26947,14 @@
       <c r="AMF10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
@@ -27984,14 +27973,14 @@
       <c r="AMF11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
@@ -29010,14 +28999,14 @@
       <c r="AMF12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
@@ -30036,14 +30025,14 @@
       <c r="AMF13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
@@ -32083,423 +32072,423 @@
       <c r="AMF15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="110.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="38" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="40" t="s">
+      <c r="C17" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="39" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="39" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="39" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="39" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="39" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="39" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="40" t="s">
+      <c r="E23" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="39" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="37" t="s">
         <v>269</v>
       </c>
-      <c r="B24" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="C24" s="40" t="s">
+      <c r="B24" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="C24" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="E24" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="F24" s="40" t="s">
+      <c r="D24" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="F24" s="39" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="F25" s="39" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="39" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="F27" s="40" t="s">
+      <c r="F27" s="39" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="39" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="F29" s="40" t="s">
+      <c r="F29" s="39" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="E30" s="40" t="s">
+      <c r="E30" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="F30" s="40" t="s">
+      <c r="F30" s="39" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="E31" s="40" t="s">
+      <c r="E31" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="F31" s="40" t="s">
+      <c r="F31" s="39" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="40" t="s">
+      <c r="F32" s="39" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="39" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="F34" s="40" t="s">
-        <v>282</v>
+      <c r="C34" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="40" t="s">
+      <c r="F35" s="39" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="B36" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="C36" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="F36" s="41" t="s">
         <v>284</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="F36" s="42" t="s">
-        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/simulation_results/inputs/input_template_excel.xlsx
+++ b/simulation_results/inputs/input_template_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="288">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -375,6 +375,24 @@
     <t xml:space="preserve">(only used if estimated through case definition “peak demand”)</t>
   </si>
   <si>
+    <t xml:space="preserve">inverter_dc_ac_batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inverter_dc_ac_cost_investment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inverter_dc_ac_cost_opex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inverter_dc_ac_cost_var</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inverter_dc_ac_efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inverter_dc_ac_lifetime</t>
+  </si>
+  <si>
     <t xml:space="preserve">maingrid_distance</t>
   </si>
   <si>
@@ -468,6 +486,24 @@
     <t xml:space="preserve">pv_lifetime</t>
   </si>
   <si>
+    <t xml:space="preserve">rectifier_ac_dc_batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rectifier_ac_dc_cost_investment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rectifier_ac_dc_cost_opex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rectifier_ac_dc_cost_var</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rectifier_ac_dc_efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rectifier_ac_dc_lifetime</t>
+  </si>
+  <si>
     <t xml:space="preserve">shortage_max_allowed</t>
   </si>
   <si>
@@ -559,42 +595,6 @@
   </si>
   <si>
     <t xml:space="preserve">wind_lifetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rectifier_ac_dc_batch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rectifier_ac_dc_cost_investment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rectifier_ac_dc_cost_opex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rectifier_ac_dc_cost_var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rectifier_ac_dc_lifetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rectifier_ac_dc_efficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inverter_dc_ac_batch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inverter_dc_ac_cost_investment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inverter_dc_ac_cost_opex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inverter_dc_ac_cost_var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inverter_dc_ac_lifetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inverter_dc_ac_efficiency</t>
   </si>
   <si>
     <t xml:space="preserve">Definition of sensitivity parameters</t>
@@ -714,6 +714,9 @@
     <t xml:space="preserve">Wind</t>
   </si>
   <si>
+    <t xml:space="preserve">GridAvailability</t>
+  </si>
+  <si>
     <t xml:space="preserve">,</t>
   </si>
   <si>
@@ -735,10 +738,16 @@
     <t xml:space="preserve">./inputs/timeseries/T4_dc_week.csv</t>
   </si>
   <si>
-    <t xml:space="preserve">Tier4_AC_compressor</t>
+    <t xml:space="preserve">Tier4_AC_DC</t>
   </si>
   <si>
-    <t xml:space="preserve">./inputs/timeseries/T4_ac_week_compressor.csv</t>
+    <t xml:space="preserve">./inputs/timeseries/T4_ac_dc_week.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demand AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demand DC</t>
   </si>
   <si>
     <t xml:space="preserve">Adding cases</t>
@@ -1205,12 +1214,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1283,7 +1292,7 @@
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="1" sqref="H19 A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1492,8 +1501,8 @@
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="1" sqref="H19 C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1644,7 +1653,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1918,8 +1927,8 @@
   </sheetPr>
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B78" activeCellId="1" sqref="H19 B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2208,109 +2217,109 @@
         <v>116</v>
       </c>
       <c r="B26" s="18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B27" s="18" t="n">
-        <v>0.15</v>
+        <v>200</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B28" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B29" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" s="18" t="n">
-        <v>20</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
+      </c>
+      <c r="B30" s="10" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="B31" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
+      </c>
+      <c r="B31" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B32" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B33" s="18" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B34" s="18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B35" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2318,10 +2327,10 @@
         <v>129</v>
       </c>
       <c r="B36" s="18" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2340,7 +2349,7 @@
         <v>131</v>
       </c>
       <c r="B38" s="18" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>87</v>
@@ -2351,10 +2360,10 @@
         <v>132</v>
       </c>
       <c r="B39" s="18" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2362,13 +2371,10 @@
         <v>133</v>
       </c>
       <c r="B40" s="18" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2376,142 +2382,145 @@
         <v>134</v>
       </c>
       <c r="B41" s="18" t="n">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B42" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B43" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B44" s="18" t="n">
-        <v>20</v>
+        <v>0.95</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B45" s="18" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B46" s="18" t="n">
-        <v>1000</v>
+        <v>1.05</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>142</v>
+        <v>94</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B47" s="18" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B48" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B49" s="18" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B50" s="18" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B51" s="18" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B52" s="18" t="n">
-        <v>0.2</v>
+        <v>1000</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>150</v>
-      </c>
-      <c r="B53" s="18" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2519,106 +2528,106 @@
         <v>151</v>
       </c>
       <c r="B54" s="18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B55" s="18" t="n">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B56" s="18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B57" s="18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B58" s="18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="B59" s="27" t="n">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="B59" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="B60" s="18" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C60" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" s="10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C60" s="0" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="B61" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>87</v>
+        <v>158</v>
+      </c>
+      <c r="B61" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B62" s="18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B63" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>87</v>
@@ -2626,21 +2635,21 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
+      </c>
+      <c r="B64" s="18" t="n">
+        <v>0.2</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B65" s="18" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>87</v>
@@ -2648,54 +2657,54 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B66" s="18" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B67" s="18" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B68" s="18" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B69" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B70" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>87</v>
@@ -2703,10 +2712,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B71" s="18" t="n">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="B71" s="27" t="n">
+        <v>1</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>87</v>
@@ -2714,57 +2723,57 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B72" s="18" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B73" s="18" t="n">
-        <v>1100</v>
+        <v>1</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B74" s="18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B75" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C76" s="15" t="s">
         <v>177</v>
-      </c>
-      <c r="B76" s="18" t="n">
-        <v>20</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2772,10 +2781,10 @@
         <v>178</v>
       </c>
       <c r="B77" s="18" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2783,10 +2792,10 @@
         <v>179</v>
       </c>
       <c r="B78" s="18" t="n">
-        <v>100</v>
+        <v>0.2</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2797,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2805,31 +2814,31 @@
         <v>181</v>
       </c>
       <c r="B80" s="18" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="B81" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>101</v>
+      <c r="B81" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="B82" s="10" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C82" s="0" t="s">
+      <c r="B82" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" s="15" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2838,10 +2847,10 @@
         <v>184</v>
       </c>
       <c r="B83" s="18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2849,10 +2858,10 @@
         <v>185</v>
       </c>
       <c r="B84" s="18" t="n">
-        <v>200</v>
+        <v>0.5</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2860,10 +2869,10 @@
         <v>186</v>
       </c>
       <c r="B85" s="18" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2874,29 +2883,29 @@
         <v>0</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B87" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="C87" s="23" t="s">
-        <v>101</v>
+      <c r="B87" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B88" s="10" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="C88" s="23" t="s">
-        <v>87</v>
+      <c r="B88" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2922,7 +2931,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="H19 B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3076,8 +3085,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K20" activeCellId="0" sqref="K20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16512,13 +16521,13 @@
         <v>225</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>227</v>
@@ -16527,24 +16536,24 @@
         <v>228</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>226</v>
@@ -16556,27 +16565,27 @@
         <v>228</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>227</v>
@@ -16585,24 +16594,24 @@
         <v>228</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>226</v>
@@ -16614,27 +16623,27 @@
         <v>228</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>227</v>
@@ -16643,14 +16652,13 @@
         <v>228</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" objects="true" scenarios="true"/>
   <mergeCells count="10">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
@@ -16680,8 +16688,8 @@
   </sheetPr>
   <dimension ref="A1:AMF36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K23" activeCellId="0" sqref="K23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="1" sqref="H19 C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18740,10 +18748,10 @@
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -19766,10 +19774,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="35" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -20792,10 +20800,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="35" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -21818,10 +21826,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="35" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -22844,10 +22852,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="35" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
@@ -23870,10 +23878,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="35" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
@@ -24896,10 +24904,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" s="35" t="s">
         <v>248</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>245</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
@@ -25922,10 +25930,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="35" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
@@ -26951,7 +26959,7 @@
         <v>41</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
@@ -27974,10 +27982,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="35" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
@@ -29000,10 +29008,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="35" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
@@ -30026,10 +30034,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="35" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
@@ -32073,27 +32081,27 @@
     </row>
     <row r="16" customFormat="false" ht="110.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="37" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="37" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B17" s="39" t="s">
         <v>42</v>
@@ -32113,7 +32121,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="37" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B18" s="39" t="s">
         <v>39</v>
@@ -32133,67 +32141,67 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="37" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="37" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="37" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="40" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B22" s="39" t="s">
         <v>39</v>
@@ -32213,13 +32221,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="40" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D23" s="39" t="s">
         <v>42</v>
@@ -32233,47 +32241,47 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="37" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="37" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="40" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B26" s="39" t="s">
         <v>39</v>
@@ -32293,27 +32301,27 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="37" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="F27" s="39" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="40" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B28" s="39" t="s">
         <v>42</v>
@@ -32333,62 +32341,62 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="40" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="37" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="37" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32413,27 +32421,27 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="37" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="37" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B34" s="39" t="s">
         <v>39</v>
@@ -32453,7 +32461,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="37" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B35" s="39" t="s">
         <v>39</v>
@@ -32473,22 +32481,22 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="37" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/simulation_results/inputs/input_template_excel.xlsx
+++ b/simulation_results/inputs/input_template_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -1214,12 +1214,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1292,7 +1292,7 @@
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="1" sqref="H19 A20"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="1" sqref="C22:C23 A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1502,7 +1502,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="1" sqref="H19 C17"/>
+      <selection pane="topLeft" activeCell="C49" activeCellId="1" sqref="C22:C23 C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1927,8 +1927,8 @@
   </sheetPr>
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B78" activeCellId="1" sqref="H19 B78"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="1" sqref="C22:C23 B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2931,7 +2931,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="H19 B13"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="C22:C23 B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3085,8 +3085,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J16" activeCellId="1" sqref="C22:C23 J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16688,8 +16688,8 @@
   </sheetPr>
   <dimension ref="A1:AMF36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="1" sqref="H19 C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/simulation_results/inputs/input_template_excel.xlsx
+++ b/simulation_results/inputs/input_template_excel.xlsx
@@ -1214,12 +1214,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1292,7 +1292,7 @@
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="1" sqref="C22:C23 A20"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1502,7 +1502,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C49" activeCellId="1" sqref="C22:C23 C49"/>
+      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1927,8 +1927,8 @@
   </sheetPr>
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="1" sqref="C22:C23 B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B78" activeCellId="0" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2931,7 +2931,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="C22:C23 B13"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3086,7 +3086,7 @@
   <dimension ref="A1:AMJ19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="1" sqref="C22:C23 J16"/>
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16689,7 +16689,7 @@
   <dimension ref="A1:AMF36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22:C23"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32227,7 +32227,7 @@
         <v>39</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D23" s="39" t="s">
         <v>42</v>

--- a/simulation_results/inputs/input_template_excel.xlsx
+++ b/simulation_results/inputs/input_template_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="291">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -150,6 +150,9 @@
     <t xml:space="preserve">restore_blackouts_if_existant</t>
   </si>
   <si>
+    <t xml:space="preserve">include_shortage_penalty_costs_in_lcoe</t>
+  </si>
+  <si>
     <t xml:space="preserve">allow_shortage</t>
   </si>
   <si>
@@ -204,7 +207,7 @@
     <t xml:space="preserve">output_file</t>
   </si>
   <si>
-    <t xml:space="preserve">results</t>
+    <t xml:space="preserve">results_ac</t>
   </si>
   <si>
     <t xml:space="preserve">Output – files</t>
@@ -699,10 +702,10 @@
     <t xml:space="preserve">title_demand_dc</t>
   </si>
   <si>
-    <t xml:space="preserve">Tier2_AC</t>
+    <t xml:space="preserve">Tier4_DC</t>
   </si>
   <si>
-    <t xml:space="preserve">./inputs/timeseries/T2_ac_week.csv</t>
+    <t xml:space="preserve">./inputs/timeseries/T4_dc_year.csv</t>
   </si>
   <si>
     <t xml:space="preserve">power</t>
@@ -720,34 +723,40 @@
     <t xml:space="preserve">,</t>
   </si>
   <si>
-    <t xml:space="preserve">Tier2_DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./inputs/timeseries/T2_dc_week.csv</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tier4_AC</t>
   </si>
   <si>
-    <t xml:space="preserve">./inputs/timeseries/T4_ac_week.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tier4_DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./inputs/timeseries/T4_dc_week.csv</t>
+    <t xml:space="preserve">./inputs/timeseries/T4_ac_year.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Tier4_AC_DC</t>
   </si>
   <si>
-    <t xml:space="preserve">./inputs/timeseries/T4_ac_dc_week.csv</t>
+    <t xml:space="preserve">./inputs/timeseries/T4_ac_dc_year.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Demand AC</t>
   </si>
   <si>
     <t xml:space="preserve">Demand DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tier2_DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./inputs/timeseries/T2_dc_year.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tier2_AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./inputs/timeseries/T2_ac_year.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tier2_AC_DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./inputs/timeseries/T2_ac_dc_year.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Adding cases</t>
@@ -849,7 +858,7 @@
     <t xml:space="preserve">capacity_inverter_dc_ac_kW</t>
   </si>
   <si>
-    <t xml:space="preserve">enable_inverter_at_backout</t>
+    <t xml:space="preserve">enable_inverter_only_at_backout</t>
   </si>
   <si>
     <t xml:space="preserve">capacity_genset_kW</t>
@@ -1043,7 +1052,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1172,6 +1181,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -1214,12 +1227,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1499,10 +1512,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1645,151 +1658,151 @@
         <v>41</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="18" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="19" t="n">
-        <v>43101</v>
+      <c r="C17" s="18" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>47</v>
+      <c r="C18" s="19" t="n">
+        <v>43101</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="20"/>
+      <c r="B20" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
-        <v>26</v>
-      </c>
       <c r="C21" s="20"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>50</v>
-      </c>
+      <c r="A22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>51</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>54</v>
+      <c r="C24" s="17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="C25" s="18" t="n">
-        <v>0.03</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="20"/>
+      <c r="B26" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="18" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="27" customFormat="false" ht="12.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="21"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11"/>
-      <c r="B28" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="C28" s="21"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11"/>
       <c r="B29" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="21"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="22"/>
-      <c r="G31" s="22"/>
+      <c r="C31" s="21"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
+      <c r="A32" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>42</v>
-      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="22"/>
+      <c r="G32" s="22"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
         <v>62</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1797,7 +1810,7 @@
         <v>65</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1805,7 +1818,7 @@
         <v>66</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1813,7 +1826,7 @@
         <v>67</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1821,26 +1834,26 @@
         <v>68</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="21"/>
+      <c r="B39" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="11"/>
       <c r="C40" s="21"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>39</v>
-      </c>
+      <c r="A41" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="21"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
@@ -1859,36 +1872,36 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="21"/>
+      <c r="B44" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="45" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="20"/>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="21"/>
     </row>
     <row r="46" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>42</v>
-      </c>
+      <c r="A46" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="20"/>
     </row>
     <row r="47" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
         <v>73</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
         <v>74</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1896,11 +1909,18 @@
         <v>75</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" objects="true" scenarios="true"/>
   <mergeCells count="7">
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
@@ -1927,8 +1947,8 @@
   </sheetPr>
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B78" activeCellId="0" sqref="B78"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D78" activeCellId="0" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1942,7 +1962,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="15"/>
@@ -1958,10 +1978,10 @@
     </row>
     <row r="3" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -1971,10 +1991,10 @@
     </row>
     <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -1989,923 +2009,923 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" s="18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B8" s="18" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B9" s="18" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B10" s="18" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B11" s="18" t="n">
-        <v>8.8</v>
+        <v>9.8</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B12" s="18" t="n">
         <f aca="false">1/1000</f>
         <v>0.001</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B13" s="18" t="n">
         <f aca="false">1/1000</f>
         <v>0.001</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B14" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B15" s="18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B16" s="18" t="n">
         <v>20</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B17" s="18" t="n">
         <v>0.5</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B18" s="18" t="n">
         <v>650</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B19" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B21" s="18" t="n">
         <v>0.33</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B22" s="18" t="n">
         <v>20</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B23" s="18" t="n">
         <v>1</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B24" s="18" t="n">
         <v>0.15</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B25" s="18" t="n">
         <v>1.2</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B26" s="18" t="n">
         <v>0.5</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B27" s="18" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B28" s="18" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B29" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B30" s="10" t="n">
         <v>0.98</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B31" s="10" t="n">
         <v>15</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B32" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B33" s="18" t="n">
         <v>0.15</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B34" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B35" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B36" s="18" t="n">
         <v>20</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B37" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B38" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B39" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B40" s="18" t="n">
         <v>1</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B41" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B42" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B43" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B44" s="18" t="n">
         <v>0.95</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B45" s="18" t="n">
         <v>20</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B46" s="18" t="n">
         <v>1.05</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B47" s="18" t="n">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B48" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B49" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B50" s="18" t="n">
         <v>20</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B51" s="18" t="n">
         <v>0.5</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B52" s="18" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B53" s="18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B54" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B55" s="18" t="n">
         <v>20</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B56" s="18" t="n">
         <v>0.5</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B57" s="18" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B58" s="18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B59" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B60" s="10" t="n">
         <v>0.8</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B61" s="10" t="n">
         <v>15</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B62" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B63" s="18" t="n">
         <v>1</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B64" s="18" t="n">
         <v>0.2</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B65" s="18" t="n">
         <v>0.4</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B66" s="18" t="n">
         <v>1</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B67" s="18" t="n">
-        <v>600</v>
+        <v>230</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B68" s="18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B69" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B70" s="18" t="n">
         <v>1</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B71" s="27" t="n">
         <v>1</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B72" s="18" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B73" s="18" t="n">
         <v>1</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B74" s="18" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B75" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B77" s="18" t="n">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B78" s="18" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B79" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B80" s="18" t="n">
         <v>0.09</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B81" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B82" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B83" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B84" s="18" t="n">
         <v>0.5</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B85" s="18" t="n">
         <v>1100</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B86" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B87" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B88" s="18" t="n">
         <v>20</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2946,7 +2966,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="15"/>
@@ -2962,10 +2982,10 @@
     </row>
     <row r="3" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -2975,10 +2995,10 @@
     </row>
     <row r="4" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -2988,10 +3008,10 @@
     </row>
     <row r="5" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
@@ -3001,10 +3021,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="30" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -3014,10 +3034,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -3027,10 +3047,10 @@
     </row>
     <row r="8" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="30" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -3046,16 +3066,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3083,10 +3103,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ19"/>
+  <dimension ref="A1:AMJ20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3106,7 +3126,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -5160,10 +5180,10 @@
     </row>
     <row r="3" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -6190,10 +6210,10 @@
     </row>
     <row r="4" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -7220,10 +7240,10 @@
     </row>
     <row r="5" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -8250,10 +8270,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -9280,10 +9300,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -10310,10 +10330,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -11340,10 +11360,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -12370,10 +12390,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -13400,10 +13420,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -14430,10 +14450,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -16486,176 +16506,247 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="H15" s="32" t="s">
         <v>229</v>
       </c>
+      <c r="H15" s="33" t="s">
+        <v>230</v>
+      </c>
       <c r="I15" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
+      </c>
+      <c r="J15" s="20" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="K15" s="20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="I16" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="H16" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>230</v>
+      <c r="J16" s="20" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="K16" s="20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>176</v>
+        <v>237</v>
       </c>
       <c r="F17" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="J17" s="20" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="K17" s="20" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="E18" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="G18" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="H18" s="33" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="H18" s="32" t="s">
-        <v>229</v>
-      </c>
       <c r="I18" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
+      </c>
+      <c r="J18" s="20" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="K18" s="20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="J19" s="20" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="K19" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="G19" s="20" t="s">
+      <c r="F20" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="G20" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="H20" s="33" t="s">
         <v>230</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="J20" s="20" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="K20" s="20" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -16688,13 +16779,13 @@
   </sheetPr>
   <dimension ref="A1:AMF36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="20" width="13.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="5" style="20" width="6.88"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="11.52"/>
@@ -17725,7 +17816,7 @@
       <c r="AMF1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33"/>
+      <c r="A2" s="34"/>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
       <c r="D2" s="0"/>
@@ -18748,14 +18839,14 @@
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
-      <c r="E3" s="34"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
@@ -19773,14 +19864,14 @@
       <c r="AMF3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
+      <c r="A4" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
@@ -20799,14 +20890,14 @@
       <c r="AMF4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
+      <c r="A5" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
       <c r="G5" s="0"/>
@@ -21825,14 +21916,14 @@
       <c r="AMF5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="A6" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
@@ -22851,14 +22942,14 @@
       <c r="AMF6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="A7" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="0"/>
       <c r="F7" s="0"/>
       <c r="G7" s="0"/>
@@ -23877,14 +23968,14 @@
       <c r="AMF7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="A8" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
@@ -24903,14 +24994,14 @@
       <c r="AMF8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
@@ -25929,14 +26020,14 @@
       <c r="AMF9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="A10" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
@@ -26955,14 +27046,14 @@
       <c r="AMF10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="A11" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
@@ -27981,14 +28072,14 @@
       <c r="AMF11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="A12" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
@@ -29007,14 +29098,14 @@
       <c r="AMF12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="A13" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
@@ -30033,14 +30124,14 @@
       <c r="AMF13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
+      <c r="A14" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
@@ -32080,423 +32171,423 @@
       <c r="AMF15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="110.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>260</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>262</v>
-      </c>
-      <c r="E16" s="38" t="s">
+      <c r="A16" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="B16" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="C16" s="39" t="s">
         <v>264</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="37" t="s">
-        <v>265</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>42</v>
+      <c r="A17" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="B18" s="39" t="s">
+      <c r="A18" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="40" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="37" t="s">
-        <v>266</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>267</v>
+      <c r="A19" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>176</v>
+      <c r="A20" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>267</v>
+      <c r="A21" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="B22" s="39" t="s">
+      <c r="A22" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="39" t="s">
+      <c r="C22" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="40" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="B23" s="39" t="s">
+      <c r="A23" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="B23" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="39" t="s">
+      <c r="D23" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="E23" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="40" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="F24" s="39" t="s">
-        <v>176</v>
+      <c r="A24" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="E25" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>267</v>
+      <c r="A25" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="B26" s="39" t="s">
+      <c r="A26" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="B26" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="39" t="s">
+      <c r="C26" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="40" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="F27" s="39" t="s">
-        <v>176</v>
+      <c r="A27" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="39" t="s">
-        <v>42</v>
+      <c r="A28" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>278</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>278</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>278</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>278</v>
-      </c>
-      <c r="F29" s="39" t="s">
-        <v>278</v>
+      <c r="A29" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>280</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>280</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>280</v>
-      </c>
-      <c r="E30" s="39" t="s">
-        <v>280</v>
-      </c>
-      <c r="F30" s="39" t="s">
-        <v>176</v>
+      <c r="A30" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="D31" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="E31" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="F31" s="39" t="s">
-        <v>176</v>
+      <c r="A31" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" s="40" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="39" t="s">
+      <c r="A32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="39" t="s">
-        <v>42</v>
+      <c r="B32" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="B33" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>283</v>
-      </c>
-      <c r="D33" s="39" t="s">
-        <v>283</v>
-      </c>
-      <c r="E33" s="39" t="s">
-        <v>283</v>
-      </c>
-      <c r="F33" s="39" t="s">
-        <v>284</v>
+      <c r="A33" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="B34" s="39" t="s">
+      <c r="A34" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="B34" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="39" t="s">
+      <c r="F34" s="40" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="B35" s="39" t="s">
+      <c r="A35" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="B35" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="39" t="s">
+      <c r="E35" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="39" t="s">
+      <c r="F35" s="40" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="B36" s="41" t="s">
-        <v>286</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>286</v>
-      </c>
-      <c r="D36" s="41" t="s">
-        <v>286</v>
-      </c>
-      <c r="E36" s="41" t="s">
-        <v>286</v>
-      </c>
-      <c r="F36" s="41" t="s">
-        <v>287</v>
+      <c r="A36" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="F36" s="42" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/simulation_results/inputs/input_template_excel.xlsx
+++ b/simulation_results/inputs/input_template_excel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="292">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -828,6 +828,9 @@
     <t xml:space="preserve">backup_shs</t>
   </si>
   <si>
+    <t xml:space="preserve">parallel_shs</t>
+  </si>
+  <si>
     <t xml:space="preserve">offgrid_shs</t>
   </si>
   <si>
@@ -1515,7 +1518,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1674,7 +1677,7 @@
         <v>44</v>
       </c>
       <c r="C17" s="18" t="n">
-        <v>90</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16777,18 +16780,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMF36"/>
+  <dimension ref="A1:AMG36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="20" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="5" style="20" width="6.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="5" style="20" width="6.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17814,6 +17817,7 @@
       <c r="AMD1" s="0"/>
       <c r="AME1" s="0"/>
       <c r="AMF1" s="0"/>
+      <c r="AMG1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="34"/>
@@ -18836,6 +18840,7 @@
       <c r="AMD2" s="0"/>
       <c r="AME2" s="0"/>
       <c r="AMF2" s="0"/>
+      <c r="AMG2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="s">
@@ -18847,7 +18852,7 @@
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="35"/>
-      <c r="F3" s="0"/>
+      <c r="F3" s="35"/>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
@@ -19862,6 +19867,7 @@
       <c r="AMD3" s="0"/>
       <c r="AME3" s="0"/>
       <c r="AMF3" s="0"/>
+      <c r="AMG3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="36" t="s">
@@ -20888,6 +20894,7 @@
       <c r="AMD4" s="0"/>
       <c r="AME4" s="0"/>
       <c r="AMF4" s="0"/>
+      <c r="AMG4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="36" t="s">
@@ -21914,6 +21921,7 @@
       <c r="AMD5" s="0"/>
       <c r="AME5" s="0"/>
       <c r="AMF5" s="0"/>
+      <c r="AMG5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="36" t="s">
@@ -22940,6 +22948,7 @@
       <c r="AMD6" s="0"/>
       <c r="AME6" s="0"/>
       <c r="AMF6" s="0"/>
+      <c r="AMG6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="36" t="s">
@@ -23966,6 +23975,7 @@
       <c r="AMD7" s="0"/>
       <c r="AME7" s="0"/>
       <c r="AMF7" s="0"/>
+      <c r="AMG7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="36" t="s">
@@ -24992,6 +25002,7 @@
       <c r="AMD8" s="0"/>
       <c r="AME8" s="0"/>
       <c r="AMF8" s="0"/>
+      <c r="AMG8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="36" t="s">
@@ -26018,6 +26029,7 @@
       <c r="AMD9" s="0"/>
       <c r="AME9" s="0"/>
       <c r="AMF9" s="0"/>
+      <c r="AMG9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="36" t="s">
@@ -27044,6 +27056,7 @@
       <c r="AMD10" s="0"/>
       <c r="AME10" s="0"/>
       <c r="AMF10" s="0"/>
+      <c r="AMG10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="36" t="s">
@@ -28070,6 +28083,7 @@
       <c r="AMD11" s="0"/>
       <c r="AME11" s="0"/>
       <c r="AMF11" s="0"/>
+      <c r="AMG11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="36" t="s">
@@ -29096,6 +29110,7 @@
       <c r="AMD12" s="0"/>
       <c r="AME12" s="0"/>
       <c r="AMF12" s="0"/>
+      <c r="AMG12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="36" t="s">
@@ -30122,6 +30137,7 @@
       <c r="AMD13" s="0"/>
       <c r="AME13" s="0"/>
       <c r="AMF13" s="0"/>
+      <c r="AMG13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="36" t="s">
@@ -31148,6 +31164,7 @@
       <c r="AMD14" s="0"/>
       <c r="AME14" s="0"/>
       <c r="AMF14" s="0"/>
+      <c r="AMG14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0"/>
@@ -32169,6 +32186,7 @@
       <c r="AMD15" s="0"/>
       <c r="AME15" s="0"/>
       <c r="AMF15" s="0"/>
+      <c r="AMG15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="110.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="38" t="s">
@@ -32189,25 +32207,31 @@
       <c r="F16" s="39" t="s">
         <v>267</v>
       </c>
+      <c r="G16" s="39" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C17" s="40" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32229,10 +32253,13 @@
       <c r="F18" s="40" t="s">
         <v>39</v>
       </c>
+      <c r="G18" s="40" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B19" s="40" t="s">
         <v>177</v>
@@ -32244,15 +32271,18 @@
         <v>177</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B20" s="40" t="s">
         <v>177</v>
@@ -32267,32 +32297,38 @@
         <v>177</v>
       </c>
       <c r="F20" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" s="40" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="38" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B21" s="40" t="s">
         <v>177</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="41" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B22" s="40" t="s">
         <v>39</v>
@@ -32307,12 +32343,15 @@
         <v>39</v>
       </c>
       <c r="F22" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="40" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="41" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B23" s="40" t="s">
         <v>39</v>
@@ -32327,52 +32366,61 @@
         <v>39</v>
       </c>
       <c r="F23" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="40" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F24" s="40" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="38" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B25" s="40" t="s">
         <v>177</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="G25" s="40" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="41" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B26" s="40" t="s">
         <v>39</v>
@@ -32387,12 +32435,15 @@
         <v>43</v>
       </c>
       <c r="F26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="40" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="38" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B27" s="40" t="s">
         <v>177</v>
@@ -32407,12 +32458,15 @@
         <v>177</v>
       </c>
       <c r="F27" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G27" s="40" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="41" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B28" s="40" t="s">
         <v>43</v>
@@ -32427,52 +32481,61 @@
         <v>43</v>
       </c>
       <c r="F28" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="40" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>281</v>
+        <v>282</v>
+      </c>
+      <c r="G29" s="40" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="38" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F30" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="G30" s="40" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="38" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B31" s="40" t="s">
         <v>177</v>
@@ -32487,6 +32550,9 @@
         <v>177</v>
       </c>
       <c r="F31" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31" s="40" t="s">
         <v>177</v>
       </c>
     </row>
@@ -32509,25 +32575,31 @@
       <c r="F32" s="40" t="s">
         <v>43</v>
       </c>
+      <c r="G32" s="40" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="38" t="s">
         <v>257</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F33" s="40" t="s">
         <v>287</v>
+      </c>
+      <c r="G33" s="40" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32549,6 +32621,9 @@
       <c r="F34" s="40" t="s">
         <v>39</v>
       </c>
+      <c r="G34" s="40" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="38" t="s">
@@ -32569,25 +32644,31 @@
       <c r="F35" s="40" t="s">
         <v>39</v>
       </c>
+      <c r="G35" s="40" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="38" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F36" s="42" t="s">
         <v>290</v>
+      </c>
+      <c r="G36" s="42" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/simulation_results/inputs/input_template_excel.xlsx
+++ b/simulation_results/inputs/input_template_excel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="295">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t xml:space="preserve">cmdline_option_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input_folder_timeseries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./inputs/timeseries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for timeseries</t>
   </si>
   <si>
     <t xml:space="preserve">output_folder</t>
@@ -705,7 +714,7 @@
     <t xml:space="preserve">Tier4_DC</t>
   </si>
   <si>
-    <t xml:space="preserve">./inputs/timeseries/T4_dc_year.csv</t>
+    <t xml:space="preserve">T4_dc_year.csv</t>
   </si>
   <si>
     <t xml:space="preserve">power</t>
@@ -726,13 +735,13 @@
     <t xml:space="preserve">Tier4_AC</t>
   </si>
   <si>
-    <t xml:space="preserve">./inputs/timeseries/T4_ac_year.csv</t>
+    <t xml:space="preserve">T4_ac_year.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Tier4_AC_DC</t>
   </si>
   <si>
-    <t xml:space="preserve">./inputs/timeseries/T4_ac_dc_year.csv</t>
+    <t xml:space="preserve">T4_ac_dc_year.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Demand AC</t>
@@ -744,19 +753,19 @@
     <t xml:space="preserve">Tier2_DC</t>
   </si>
   <si>
-    <t xml:space="preserve">./inputs/timeseries/T2_dc_year.csv</t>
+    <t xml:space="preserve">T2_dc_year.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Tier2_AC</t>
   </si>
   <si>
-    <t xml:space="preserve">./inputs/timeseries/T2_ac_year.csv</t>
+    <t xml:space="preserve">T2_ac_year.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Tier2_AC_DC</t>
   </si>
   <si>
-    <t xml:space="preserve">./inputs/timeseries/T2_ac_dc_year.csv</t>
+    <t xml:space="preserve">T2_ac_dc_year.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Adding cases</t>
@@ -1055,7 +1064,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1141,6 +1150,10 @@
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1230,12 +1243,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1515,10 +1528,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1760,115 +1773,119 @@
       </c>
       <c r="C28" s="21"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="11"/>
       <c r="B29" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="22" t="s">
         <v>58</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11"/>
       <c r="B30" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="18" t="s">
         <v>60</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="21"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="22"/>
-      <c r="G32" s="22"/>
+      <c r="C32" s="21"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="A33" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="23"/>
+      <c r="G33" s="23"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="21"/>
+      <c r="B40" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="11"/>
       <c r="C41" s="21"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>39</v>
-      </c>
+      <c r="A42" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="21"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>39</v>
@@ -1876,40 +1893,40 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="21"/>
+      <c r="B45" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="46" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="20"/>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="21"/>
     </row>
     <row r="47" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="A47" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="20"/>
     </row>
     <row r="48" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>43</v>
@@ -1917,9 +1934,17 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C50" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1950,7 +1975,7 @@
   </sheetPr>
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D78" activeCellId="0" sqref="D78"/>
     </sheetView>
   </sheetViews>
@@ -1958,33 +1983,33 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="6.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="6.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="4" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="6.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="24"/>
+        <v>80</v>
+      </c>
+      <c r="B1" s="25"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11"/>
-      <c r="B2" s="24"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -1994,10 +2019,10 @@
     </row>
     <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -2007,928 +2032,928 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B7" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B8" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B9" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B10" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B11" s="18" t="n">
         <v>9.8</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B12" s="18" t="n">
         <f aca="false">1/1000</f>
         <v>0.001</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>95</v>
+      <c r="C12" s="24" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B13" s="18" t="n">
         <f aca="false">1/1000</f>
         <v>0.001</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>95</v>
+      <c r="C13" s="24" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B14" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B15" s="18" t="n">
         <v>10</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B16" s="18" t="n">
         <v>20</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B17" s="18" t="n">
         <v>0.5</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B18" s="18" t="n">
         <v>650</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B19" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B20" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B21" s="18" t="n">
         <v>0.33</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B22" s="18" t="n">
         <v>20</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B23" s="18" t="n">
         <v>1</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B24" s="18" t="n">
         <v>0.15</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B25" s="18" t="n">
         <v>1.2</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B26" s="18" t="n">
         <v>0.5</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B27" s="18" t="n">
         <v>400</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B28" s="18" t="n">
         <v>50</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B29" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B30" s="10" t="n">
         <v>0.98</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>88</v>
+      <c r="C30" s="24" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B31" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="C31" s="23" t="s">
-        <v>102</v>
+      <c r="C31" s="24" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B32" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B33" s="18" t="n">
         <v>0.15</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B34" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B35" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B36" s="18" t="n">
         <v>20</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B37" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B38" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B39" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B40" s="18" t="n">
         <v>1</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B41" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B42" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B43" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B44" s="18" t="n">
         <v>0.95</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B45" s="18" t="n">
         <v>20</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B46" s="18" t="n">
         <v>1.05</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B47" s="18" t="n">
         <v>0.76</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B48" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B49" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B50" s="18" t="n">
         <v>20</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B51" s="18" t="n">
         <v>0.5</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B52" s="18" t="n">
         <v>650</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B53" s="18" t="n">
         <v>8</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B54" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B55" s="18" t="n">
         <v>20</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B56" s="18" t="n">
         <v>0.5</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B57" s="18" t="n">
         <v>150</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B58" s="18" t="n">
         <v>5</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B59" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B60" s="10" t="n">
         <v>0.8</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B61" s="10" t="n">
         <v>15</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B62" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B63" s="18" t="n">
         <v>1</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B64" s="18" t="n">
         <v>0.2</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B65" s="18" t="n">
         <v>0.4</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B66" s="18" t="n">
         <v>1</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B67" s="18" t="n">
         <v>230</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B68" s="18" t="n">
         <v>15</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B69" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B70" s="18" t="n">
         <v>1</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="B71" s="27" t="n">
+        <v>174</v>
+      </c>
+      <c r="B71" s="28" t="n">
         <v>1</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B72" s="18" t="n">
         <v>0.8</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B73" s="18" t="n">
         <v>1</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B74" s="18" t="n">
         <v>5</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B75" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B77" s="18" t="n">
         <v>0.95</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B78" s="18" t="n">
         <v>0.3</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B79" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B80" s="18" t="n">
         <v>0.09</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B81" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B82" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B83" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B84" s="18" t="n">
         <v>0.5</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B85" s="18" t="n">
         <v>1100</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B86" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B87" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B88" s="18" t="n">
         <v>20</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2969,65 +2994,65 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="24"/>
+        <v>194</v>
+      </c>
+      <c r="B1" s="25"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11"/>
-      <c r="B2" s="24"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="A3" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="A4" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
+      <c r="A5" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30" t="s">
-        <v>195</v>
+      <c r="A6" s="31" t="s">
+        <v>198</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -3036,11 +3061,11 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="30" t="s">
-        <v>197</v>
+      <c r="A7" s="31" t="s">
+        <v>200</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -3049,11 +3074,11 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30" t="s">
-        <v>199</v>
+      <c r="A8" s="31" t="s">
+        <v>202</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -3069,16 +3094,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3106,10 +3131,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ20"/>
+  <dimension ref="A1:AMI20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3124,12 +3149,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="10" style="20" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="20" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="20" width="11.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="20" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="21" style="20" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="6.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -4153,7 +4179,6 @@
       <c r="AMG1" s="0"/>
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
@@ -5179,21 +5204,20 @@
       <c r="AMG2" s="0"/>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="A3" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="15"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="10"/>
       <c r="J3" s="15"/>
       <c r="K3" s="0"/>
@@ -6209,21 +6233,20 @@
       <c r="AMG3" s="0"/>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
-      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="A4" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="10"/>
       <c r="J4" s="15"/>
       <c r="K4" s="0"/>
@@ -7239,21 +7262,20 @@
       <c r="AMG4" s="0"/>
       <c r="AMH4" s="0"/>
       <c r="AMI4" s="0"/>
-      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="A5" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="10"/>
       <c r="J5" s="15"/>
       <c r="K5" s="0"/>
@@ -8269,14 +8291,13 @@
       <c r="AMG5" s="0"/>
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
-      <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -9299,14 +9320,13 @@
       <c r="AMG6" s="0"/>
       <c r="AMH6" s="0"/>
       <c r="AMI6" s="0"/>
-      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -10329,14 +10349,13 @@
       <c r="AMG7" s="0"/>
       <c r="AMH7" s="0"/>
       <c r="AMI7" s="0"/>
-      <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -11359,14 +11378,13 @@
       <c r="AMG8" s="0"/>
       <c r="AMH8" s="0"/>
       <c r="AMI8" s="0"/>
-      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -12389,14 +12407,13 @@
       <c r="AMG9" s="0"/>
       <c r="AMH9" s="0"/>
       <c r="AMI9" s="0"/>
-      <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -13419,14 +13436,13 @@
       <c r="AMG10" s="0"/>
       <c r="AMH10" s="0"/>
       <c r="AMI10" s="0"/>
-      <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -14449,14 +14465,13 @@
       <c r="AMG11" s="0"/>
       <c r="AMH11" s="0"/>
       <c r="AMI11" s="0"/>
-      <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -15479,7 +15494,6 @@
       <c r="AMG12" s="0"/>
       <c r="AMH12" s="0"/>
       <c r="AMI12" s="0"/>
-      <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0"/>
@@ -16505,70 +16519,69 @@
       <c r="AMG13" s="0"/>
       <c r="AMH13" s="0"/>
       <c r="AMI13" s="0"/>
-      <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="I14" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="J14" s="32" t="s">
-        <v>125</v>
+      <c r="J14" s="33" t="s">
+        <v>128</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>230</v>
+        <v>232</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>233</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J15" s="20" t="n">
         <v>0.079</v>
@@ -16579,31 +16592,31 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="H16" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>230</v>
-      </c>
       <c r="I16" s="20" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J16" s="20" t="n">
         <v>0.079</v>
@@ -16614,66 +16627,66 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="I17" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>231</v>
       </c>
       <c r="J17" s="20" t="n">
         <v>0.079</v>
       </c>
       <c r="K17" s="20" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="20" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>230</v>
+        <v>232</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>233</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J18" s="20" t="n">
         <v>0.032</v>
@@ -16684,31 +16697,31 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="20" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>230</v>
+        <v>232</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>233</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J19" s="20" t="n">
         <v>0.032</v>
@@ -16719,37 +16732,37 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="20" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>230</v>
+        <v>232</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>233</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J20" s="20" t="n">
         <v>0.032</v>
       </c>
       <c r="K20" s="20" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -17820,7 +17833,7 @@
       <c r="AMG1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
       <c r="D2" s="0"/>
@@ -18843,16 +18856,16 @@
       <c r="AMG2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
+      <c r="A3" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
@@ -19870,14 +19883,14 @@
       <c r="AMG3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="A4" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
@@ -20897,14 +20910,14 @@
       <c r="AMG4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="A5" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
       <c r="G5" s="0"/>
@@ -21924,14 +21937,14 @@
       <c r="AMG5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
+      <c r="A6" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
@@ -22951,14 +22964,14 @@
       <c r="AMG6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
+      <c r="A7" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="0"/>
       <c r="F7" s="0"/>
       <c r="G7" s="0"/>
@@ -23978,14 +23991,14 @@
       <c r="AMG7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="36" t="s">
-        <v>253</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="A8" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
@@ -25005,14 +25018,14 @@
       <c r="AMG8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
@@ -26032,14 +26045,14 @@
       <c r="AMG9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="A10" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
@@ -27059,14 +27072,14 @@
       <c r="AMG10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="B11" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
@@ -28086,14 +28099,14 @@
       <c r="AMG11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="A12" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
@@ -29113,14 +29126,14 @@
       <c r="AMG12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
+      <c r="A13" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
@@ -30140,14 +30153,14 @@
       <c r="AMG13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
+      <c r="A14" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
@@ -32189,486 +32202,486 @@
       <c r="AMG15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="110.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>264</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="E16" s="39" t="s">
+      <c r="A16" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="C16" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="D16" s="40" t="s">
         <v>268</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="B17" s="40" t="s">
+      <c r="A17" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="B17" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="41" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="B18" s="40" t="s">
+      <c r="A18" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="B18" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="41" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>271</v>
+      <c r="A19" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="G20" s="40" t="s">
-        <v>177</v>
+      <c r="A20" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>271</v>
+      <c r="A21" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="41" t="s">
-        <v>274</v>
-      </c>
-      <c r="B22" s="40" t="s">
+      <c r="A22" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="B22" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="41" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="B23" s="40" t="s">
+      <c r="A23" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="B23" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="40" t="s">
+      <c r="G23" s="41" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>271</v>
+      <c r="A24" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="E25" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="F25" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="G25" s="40" t="s">
-        <v>271</v>
+      <c r="A25" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="41" t="s">
-        <v>278</v>
-      </c>
-      <c r="B26" s="40" t="s">
+      <c r="A26" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="B26" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="40" t="s">
+      <c r="G26" s="41" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="C27" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="E27" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="G27" s="40" t="s">
-        <v>177</v>
+      <c r="A27" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="B28" s="40" t="s">
+      <c r="A28" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="B28" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="G28" s="40" t="s">
+      <c r="G28" s="41" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="G29" s="40" t="s">
-        <v>282</v>
+      <c r="A29" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="G29" s="41" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="F30" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="G30" s="40" t="s">
-        <v>177</v>
+      <c r="A30" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="C31" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="F31" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="G31" s="40" t="s">
-        <v>177</v>
+      <c r="A31" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="40" t="s">
+      <c r="F32" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="40" t="s">
+      <c r="G32" s="41" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="B33" s="40" t="s">
-        <v>286</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="E33" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="F33" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>288</v>
+      <c r="A33" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="B34" s="40" t="s">
+      <c r="A34" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="B34" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="D34" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="40" t="s">
+      <c r="F34" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="40" t="s">
+      <c r="G34" s="41" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="B35" s="40" t="s">
+      <c r="A35" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="B35" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="40" t="s">
+      <c r="F35" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="40" t="s">
+      <c r="G35" s="41" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="B36" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="F36" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="G36" s="42" t="s">
-        <v>291</v>
+      <c r="A36" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="F36" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="G36" s="43" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/simulation_results/inputs/input_template_excel.xlsx
+++ b/simulation_results/inputs/input_template_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -144,19 +144,19 @@
     <t xml:space="preserve">restore_oemof_if_existant</t>
   </si>
   <si>
-    <t xml:space="preserve">False</t>
+    <t xml:space="preserve">True</t>
   </si>
   <si>
     <t xml:space="preserve">restore_blackouts_if_existant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False</t>
   </si>
   <si>
     <t xml:space="preserve">include_shortage_penalty_costs_in_lcoe</t>
   </si>
   <si>
     <t xml:space="preserve">allow_shortage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True</t>
   </si>
   <si>
     <t xml:space="preserve">evaluated_days</t>
@@ -1530,8 +1530,8 @@
   </sheetPr>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1666,23 +1666,23 @@
         <v>40</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1717,7 +1717,7 @@
         <v>49</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1742,7 +1742,7 @@
         <v>52</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1819,7 +1819,7 @@
         <v>65</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1827,7 +1827,7 @@
         <v>66</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>67</v>
@@ -1838,7 +1838,7 @@
         <v>68</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1846,7 +1846,7 @@
         <v>69</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,7 +1854,7 @@
         <v>70</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1862,7 +1862,7 @@
         <v>71</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1870,7 +1870,7 @@
         <v>72</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1888,7 +1888,7 @@
         <v>73</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1896,7 +1896,7 @@
         <v>74</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1904,7 +1904,7 @@
         <v>75</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1921,7 +1921,7 @@
         <v>76</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1929,7 +1929,7 @@
         <v>77</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1937,7 +1937,7 @@
         <v>78</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1945,7 +1945,7 @@
         <v>79</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -16795,8 +16795,8 @@
   </sheetPr>
   <dimension ref="A1:AMG36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N28" activeCellId="0" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27073,7 +27073,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>259</v>
@@ -32232,7 +32232,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D17" s="41" t="s">
         <v>39</v>
@@ -32252,22 +32252,22 @@
         <v>251</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32344,22 +32344,22 @@
         <v>277</v>
       </c>
       <c r="B22" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="41" t="s">
-        <v>43</v>
-      </c>
       <c r="D22" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G22" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32367,22 +32367,22 @@
         <v>278</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G23" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32436,22 +32436,22 @@
         <v>281</v>
       </c>
       <c r="B26" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="41" t="s">
-        <v>43</v>
-      </c>
       <c r="D26" s="41" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G26" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32482,22 +32482,22 @@
         <v>283</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G28" s="41" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32571,25 +32571,25 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F32" s="41" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32620,22 +32620,22 @@
         <v>262</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F34" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G34" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32643,22 +32643,22 @@
         <v>264</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E35" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F35" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
